--- a/src/main/resources/templates/QuYuPanDian.xlsx
+++ b/src/main/resources/templates/QuYuPanDian.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C7BB31-95BD-4232-BB81-517FEFC5D492}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="区域1" sheetId="1" r:id="rId1"/>
     <sheet name="区域2" sheetId="2" r:id="rId2"/>
     <sheet name="区域3" sheetId="3" r:id="rId3"/>
+    <sheet name="区域4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>商品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,18 +69,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试商品41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试商品51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>测试商品13</t>
+  </si>
+  <si>
+    <t>测试商品14</t>
+  </si>
+  <si>
+    <t>测试商品15</t>
+  </si>
+  <si>
+    <t>测试商品22</t>
+  </si>
+  <si>
+    <t>测试商品23</t>
+  </si>
+  <si>
+    <t>测试商品24</t>
+  </si>
+  <si>
+    <t>测试商品25</t>
+  </si>
+  <si>
+    <t>测试商品32</t>
+  </si>
+  <si>
+    <t>测试商品33</t>
+  </si>
+  <si>
+    <t>测试商品34</t>
+  </si>
+  <si>
+    <t>测试商品35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -400,21 +427,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>201907020001</v>
       </c>
@@ -436,7 +463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>201907020002</v>
       </c>
@@ -444,10 +471,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>201907020003</v>
       </c>
@@ -455,10 +482,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>201907020004</v>
       </c>
@@ -466,10 +493,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>201907020005</v>
       </c>
@@ -477,7 +504,18 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>201907020005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -487,21 +525,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>201907020011</v>
       </c>
@@ -523,48 +561,133 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>201907020012</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>201907020013</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>201907020014</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>201907020015</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.9140625" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>201907020021</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>201907020022</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>201907020023</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>201907020024</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>201907020025</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -573,22 +696,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE02A22-7BC1-4D0A-B90D-5CFB9C9C22DD}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.9140625" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,59 +722,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>201907020011</v>
+        <v>201907020021</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>201907020012</v>
+        <v>201907020022</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>201907020013</v>
+        <v>201907020023</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>201907020014</v>
+        <v>201907020024</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>201907020015</v>
+        <v>201907020025</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
